--- a/data/trans_dic/P25D_R2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R2_2023-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0125322638719904</v>
+        <v>0.01221154369562139</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0004715988458290998</v>
+        <v>0.0004681668782627447</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006120843879020825</v>
+        <v>0.005883873893511833</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04503728010622574</v>
+        <v>0.0397487332812094</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006005073249087161</v>
+        <v>0.005462423902867304</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0190710137559372</v>
+        <v>0.01855839451221829</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.03950155947426322</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02473837281827306</v>
+        <v>0.02473837281827307</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03221408859867809</v>
+        <v>0.03221408859867808</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02885452508027019</v>
+        <v>0.02966485920183458</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01864372142153115</v>
+        <v>0.0182332399528194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02587778290275489</v>
+        <v>0.02588771078921849</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05187762540702279</v>
+        <v>0.05132960487775349</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03434069293090995</v>
+        <v>0.0330646795325938</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03984840839368645</v>
+        <v>0.03940628395681935</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01430231691183457</v>
+        <v>0.01341062044247994</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01428702091186494</v>
+        <v>0.01304217412734434</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01516339747062189</v>
+        <v>0.01573687900465823</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04515703600996708</v>
+        <v>0.04447595579058439</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03714110246404172</v>
+        <v>0.03722194979909369</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03437072748831857</v>
+        <v>0.03525085096514292</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02599586170579936</v>
+        <v>0.02656904518870902</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01503323684105686</v>
+        <v>0.01471922967277597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02202537452028196</v>
+        <v>0.0218301612972387</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04327548358517311</v>
+        <v>0.04415347394936858</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02503941447385314</v>
+        <v>0.0252467846151182</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03160322183572718</v>
+        <v>0.03163455687461481</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7250</v>
+        <v>7065</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8560</v>
+        <v>8229</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26055</v>
+        <v>22996</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4924</v>
+        <v>4479</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26671</v>
+        <v>25954</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>64143</v>
+        <v>65944</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>40401</v>
+        <v>39511</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>113603</v>
+        <v>113646</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>115323</v>
+        <v>114105</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>74416</v>
+        <v>71651</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>174934</v>
+        <v>172993</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10148</v>
+        <v>9516</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10489</v>
+        <v>9575</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21892</v>
+        <v>22720</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>32041</v>
+        <v>31558</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27268</v>
+        <v>27327</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49622</v>
+        <v>50892</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>91273</v>
+        <v>93286</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>55941</v>
+        <v>54772</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>159292</v>
+        <v>157880</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>151943</v>
+        <v>155026</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>93175</v>
+        <v>93946</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>228560</v>
+        <v>228787</v>
       </c>
     </row>
     <row r="20">
